--- a/com.travel_app_automation/TestCases/RedBus_TestApp.xlsx
+++ b/com.travel_app_automation/TestCases/RedBus_TestApp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumesh\eclipse-workspace\com.travel_app_automation\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumesh\git\TravelApp_Automation\com.travel_app_automation\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBD9C57-7603-4D69-A82E-01D2A2E78497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F958E278-79EC-46F6-AD32-BEB72A6D0A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t>Sl No</t>
   </si>
@@ -132,9 +132,6 @@
     <t>The user is able to see 'Signup' option</t>
   </si>
   <si>
-    <t>Validate if the user can complete Bus booking end-to-end after logging in</t>
-  </si>
-  <si>
     <t>Validate if the user is logged on to redbus official site</t>
   </si>
   <si>
@@ -157,6 +154,84 @@
   </si>
   <si>
     <t>End to End booking process</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Ticket Booking Functionality</t>
+  </si>
+  <si>
+    <t>Validate if the user can complete Bus booking end-to-end after logging in by providing correct details</t>
+  </si>
+  <si>
+    <t>Validate if the user can click on 'rYde' option from home page</t>
+  </si>
+  <si>
+    <t>Validate if Cab Rreantals card is visible and user can click on it</t>
+  </si>
+  <si>
+    <t>Validate if user can choose trip type,cab type,travel date,pickup and drop locations</t>
+  </si>
+  <si>
+    <t>Validate if user is guided to the list of cabs available after filling out the correct form</t>
+  </si>
+  <si>
+    <t>Validate if the user can explore cab rental optilons after providing valid details</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Cab rentals functionality</t>
+  </si>
+  <si>
+    <t>Cab rentals search for a valid route</t>
+  </si>
+  <si>
+    <t>Validate if the user doesn’t enter drop location and hit enter</t>
+  </si>
+  <si>
+    <t>Validate if the Drop location text box becomes red and user cant proceed next</t>
+  </si>
+  <si>
+    <t>Validate if the user can't proceed without entering the drop location</t>
+  </si>
+  <si>
+    <t>User can not proceed without entering drop location</t>
+  </si>
+  <si>
+    <t>Validate if the user enters correct pickup and drop location</t>
+  </si>
+  <si>
+    <t>Validate if the user enters pickup and drop date on the same day for Round Trip</t>
+  </si>
+  <si>
+    <t>Validate if a message alert is displayed if the trip duration is lesser than the trip time required</t>
+  </si>
+  <si>
+    <t>Validate if the alert contains the exact time required to complete the trip and button to change the drop date</t>
+  </si>
+  <si>
+    <t>Validate if after clicking on the button user is again guided to the drop date selection calender</t>
+  </si>
+  <si>
+    <t>Validate if the calander already has the date selected aligned with the minimum time required to complete the trip</t>
+  </si>
+  <si>
+    <t>Pre-selected drop date if the user enters an inadequate travel duration</t>
+  </si>
+  <si>
+    <t>Validate if the user enters an inadequate duration of travel then user is guided to the calander where the drop date is pre-selected as per the minimum time required to complete the round trip</t>
+  </si>
+  <si>
+    <t>Validate if the user is in the cab rentals page</t>
+  </si>
+  <si>
+    <t>Validate if the user is able to see cab and bus options after clicking on Outstation tide</t>
+  </si>
+  <si>
+    <t>Validate if the user can see the max number of people that can board bus and cab are 4 and more than 8</t>
   </si>
 </sst>
 </file>
@@ -180,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -210,9 +285,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -223,7 +296,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -240,40 +315,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,53 +329,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +657,7 @@
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -654,16 +688,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -672,58 +706,58 @@
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -732,48 +766,48 @@
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -782,72 +816,72 @@
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -856,166 +890,469 @@
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="16" t="s">
+      <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="17"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="17"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="18" t="s">
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="18" t="s">
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="17"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="18" t="s">
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="17"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="18" t="s">
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="17"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="18" t="s">
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="17"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="1"/>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="34">
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B29:B47"/>
+    <mergeCell ref="A29:A47"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="D21:D28"/>
     <mergeCell ref="C21:C28"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
@@ -1026,10 +1363,20 @@
     <mergeCell ref="A9:A20"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="C9:C13"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H14:H20"/>
     <mergeCell ref="G14:G20"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="C37:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
